--- a/CLASSREQUEST.xlsx
+++ b/CLASSREQUEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaScript\oqcard\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090BE3FA-4F3C-4632-A42E-D06033BBF954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFF730-4FE8-4952-AAD8-60CD3AEB2F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4284" yWindow="3540" windowWidth="11472" windowHeight="9420" xr2:uid="{329C4FB2-0CC7-490D-B4A6-7BE80A062F8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46EE94E-37CD-4C49-8286-3E20A387498E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,73 +558,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7002600</v>
-      </c>
-      <c r="B5">
-        <v>7002600</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45726</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45742</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>105544</v>
-      </c>
-      <c r="B6">
-        <v>50013869</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45727</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45742</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>8458587</v>
-      </c>
-      <c r="B7">
-        <v>84548544</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45696</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45726</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
